--- a/my_rpg_support/recursos/Rpg_1/Classes_racas_skills.xlsx
+++ b/my_rpg_support/recursos/Rpg_1/Classes_racas_skills.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\flutter\my_rpg_support\recursos\historia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\github\MyRpg\MyRpg-support\my_rpg_support\recursos\Rpg_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41018A77-D075-4F6E-84A2-E4A2DE5DEC25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DBCE86-50E9-4F4A-B6E1-B892D6F42533}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Humano</t>
   </si>
@@ -178,6 +178,21 @@
   </si>
   <si>
     <t>Alquimista&gt;Consegue criar poções</t>
+  </si>
+  <si>
+    <t>Choro</t>
+  </si>
+  <si>
+    <t>Consegue um pequeno desconto em lojas</t>
+  </si>
+  <si>
+    <t>Negociador&gt;Consegue desconto em lojas e negociações</t>
+  </si>
+  <si>
+    <t>Carregador</t>
+  </si>
+  <si>
+    <t>Sempre terá ao menos 1 de vel não importa quanto de peso leve(desde que ele consiga levar)</t>
   </si>
 </sst>
 </file>
@@ -231,18 +246,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,7 +542,7 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B23" sqref="B23:M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,24 +554,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -822,56 +837,56 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="3" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -891,524 +906,499 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="N31:T31"/>
-    <mergeCell ref="N32:T32"/>
-    <mergeCell ref="N25:T25"/>
-    <mergeCell ref="N26:T26"/>
-    <mergeCell ref="N27:T27"/>
-    <mergeCell ref="N28:T28"/>
-    <mergeCell ref="N29:T29"/>
-    <mergeCell ref="N30:T30"/>
-    <mergeCell ref="N19:T19"/>
-    <mergeCell ref="N20:T20"/>
-    <mergeCell ref="N21:T21"/>
-    <mergeCell ref="N22:T22"/>
-    <mergeCell ref="N23:T23"/>
-    <mergeCell ref="N24:T24"/>
-    <mergeCell ref="N13:T13"/>
-    <mergeCell ref="N14:T14"/>
-    <mergeCell ref="N15:T15"/>
-    <mergeCell ref="N16:T16"/>
-    <mergeCell ref="N17:T17"/>
-    <mergeCell ref="N18:T18"/>
-    <mergeCell ref="B27:M27"/>
-    <mergeCell ref="B28:M28"/>
-    <mergeCell ref="B29:M29"/>
-    <mergeCell ref="B30:M30"/>
-    <mergeCell ref="B31:M31"/>
-    <mergeCell ref="B32:M32"/>
-    <mergeCell ref="B21:M21"/>
-    <mergeCell ref="B22:M22"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="B24:M24"/>
-    <mergeCell ref="B25:M25"/>
-    <mergeCell ref="B26:M26"/>
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="B19:M19"/>
     <mergeCell ref="B20:M20"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B11:M11"/>
@@ -1418,6 +1408,43 @@
     <mergeCell ref="A10:T10"/>
     <mergeCell ref="N11:T11"/>
     <mergeCell ref="N12:T12"/>
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="B19:M19"/>
+    <mergeCell ref="B32:M32"/>
+    <mergeCell ref="B21:M21"/>
+    <mergeCell ref="B22:M22"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="B24:M24"/>
+    <mergeCell ref="B25:M25"/>
+    <mergeCell ref="B26:M26"/>
+    <mergeCell ref="B27:M27"/>
+    <mergeCell ref="B28:M28"/>
+    <mergeCell ref="B29:M29"/>
+    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="B31:M31"/>
+    <mergeCell ref="N24:T24"/>
+    <mergeCell ref="N13:T13"/>
+    <mergeCell ref="N14:T14"/>
+    <mergeCell ref="N15:T15"/>
+    <mergeCell ref="N16:T16"/>
+    <mergeCell ref="N17:T17"/>
+    <mergeCell ref="N18:T18"/>
+    <mergeCell ref="N19:T19"/>
+    <mergeCell ref="N20:T20"/>
+    <mergeCell ref="N21:T21"/>
+    <mergeCell ref="N22:T22"/>
+    <mergeCell ref="N23:T23"/>
+    <mergeCell ref="N31:T31"/>
+    <mergeCell ref="N32:T32"/>
+    <mergeCell ref="N25:T25"/>
+    <mergeCell ref="N26:T26"/>
+    <mergeCell ref="N27:T27"/>
+    <mergeCell ref="N28:T28"/>
+    <mergeCell ref="N29:T29"/>
+    <mergeCell ref="N30:T30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
